--- a/quizOneXL.xlsx
+++ b/quizOneXL.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cole\PycharmProjects\TesterApp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533CAF2E-8EA3-4819-9F99-D5DB81B32FB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="21075" windowHeight="10800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,6 +200,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -242,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +284,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,6 +336,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,16 +528,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -502,275 +545,293 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>8</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>9</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>10</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B53" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>42</v>
       </c>
     </row>
@@ -781,24 +842,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
